--- a/Base de Datos Encuesta IA.xlsx
+++ b/Base de Datos Encuesta IA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e935b333fca87077/Universidad/2024/Probabilidad y estadistica/Proyecto-Estadistica/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d31606aa34a68fb9/Documents/UNI-NUEVO/5TO SEMESTRE/Proyecto-Estadistica/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{27FE3CF9-2DB4-4160-A6C8-39A5CDCD92F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7EF18E1C-E0C7-4CFB-87DA-05B8BD78D6BC}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="8_{27FE3CF9-2DB4-4160-A6C8-39A5CDCD92F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A079BE55-FB12-4C66-B9F6-DA5BD0EC0087}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -282,34 +282,34 @@
     <t>carrera</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
   </si>
 </sst>
 </file>
@@ -902,16 +902,16 @@
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="email2" dataDxfId="12"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="sexo" dataDxfId="11"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="carrera" dataDxfId="10"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="4" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="5" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="6" dataDxfId="7"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="7" dataDxfId="6"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="8" dataDxfId="5"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="9" dataDxfId="4"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="10" dataDxfId="3"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="11" dataDxfId="2"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="12" dataDxfId="1"/>
-    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="13" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="A" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="B" dataDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="C" dataDxfId="7"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="D" dataDxfId="6"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="E" dataDxfId="5"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="F" dataDxfId="4"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="G" dataDxfId="3"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="H" dataDxfId="2"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="I" dataDxfId="1"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="J" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1216,34 +1216,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.86328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.796875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="6.77734375" style="2" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="15" style="2" customWidth="1"/>
-    <col min="4" max="4" width="27.796875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="30.1328125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="7.1328125" style="2" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="28.53125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27.77734375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="30.109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="7.109375" style="2" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="28.5546875" style="2" customWidth="1"/>
     <col min="8" max="8" width="16.6640625" style="2" customWidth="1"/>
     <col min="9" max="9" width="20" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.796875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="26.77734375" style="2" customWidth="1"/>
     <col min="11" max="12" width="20" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="29.46484375" style="2" customWidth="1"/>
+    <col min="13" max="13" width="29.44140625" style="2" customWidth="1"/>
     <col min="14" max="14" width="27.33203125" style="2" customWidth="1"/>
     <col min="15" max="15" width="22.6640625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="23.1328125" style="2" customWidth="1"/>
-    <col min="17" max="17" width="24.46484375" style="2" customWidth="1"/>
-    <col min="18" max="18" width="22.19921875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="23.109375" style="2" customWidth="1"/>
+    <col min="17" max="17" width="24.44140625" style="2" customWidth="1"/>
+    <col min="18" max="18" width="22.21875" style="2" customWidth="1"/>
     <col min="19" max="19" width="27.33203125" style="2" customWidth="1"/>
-    <col min="20" max="16384" width="8.86328125" style="2"/>
+    <col min="20" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" ht="67.8" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:19" s="1" customFormat="1" ht="67.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:19" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1359,7 +1359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:19" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1416,7 +1416,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:19" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1473,7 +1473,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:19" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1530,7 +1530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:19" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:19" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:19" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1701,7 +1701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:19" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:19" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:19" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:19" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:19" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:19" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2043,7 +2043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:19" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -2100,7 +2100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:19" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -2157,7 +2157,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:19" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -2214,7 +2214,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:19" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:19" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -2328,7 +2328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:19" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -2385,7 +2385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:19" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -2442,7 +2442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:19" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:19" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -2556,7 +2556,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:19" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -2613,7 +2613,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:19" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -2670,7 +2670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:19" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -2737,15 +2737,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010077118AA077E4274B9937408528E83411" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1630afabe1d24fa57131cabfd3bf1354">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9c005fe4-cbf4-4fa5-bde8-fffb59d240b5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3ec1d0acbdf9f11d11a810dfac00d1a2" ns2:_="">
     <xsd:import namespace="9c005fe4-cbf4-4fa5-bde8-fffb59d240b5"/>
@@ -2895,15 +2886,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFA68FBA-E252-4F2E-B4E6-18ABDE076372}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{970064FF-3CB9-4665-9F23-ADBD0A3FD998}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2919,4 +2911,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFA68FBA-E252-4F2E-B4E6-18ABDE076372}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Base de Datos Encuesta IA.xlsx
+++ b/Base de Datos Encuesta IA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d31606aa34a68fb9/Documents/UNI-NUEVO/5TO SEMESTRE/Proyecto-Estadistica/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="8_{27FE3CF9-2DB4-4160-A6C8-39A5CDCD92F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A079BE55-FB12-4C66-B9F6-DA5BD0EC0087}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="8_{27FE3CF9-2DB4-4160-A6C8-39A5CDCD92F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB7E9318-B34F-461C-BCED-E7C24438E475}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -887,6 +887,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1216,8 +1220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2737,6 +2741,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010077118AA077E4274B9937408528E83411" ma:contentTypeVersion="5" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1630afabe1d24fa57131cabfd3bf1354">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="9c005fe4-cbf4-4fa5-bde8-fffb59d240b5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3ec1d0acbdf9f11d11a810dfac00d1a2" ns2:_="">
     <xsd:import namespace="9c005fe4-cbf4-4fa5-bde8-fffb59d240b5"/>
@@ -2886,16 +2899,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFA68FBA-E252-4F2E-B4E6-18ABDE076372}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{970064FF-3CB9-4665-9F23-ADBD0A3FD998}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2911,12 +2923,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFA68FBA-E252-4F2E-B4E6-18ABDE076372}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>